--- a/Templates/TemplateDefault.xlsx
+++ b/Templates/TemplateDefault.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7910FF63-2BCC-48F6-9789-D97AA4FC55C7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F649C98D-D1F2-44FE-9640-13E9D9BD15BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="761" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="D2D" sheetId="7" r:id="rId1"/>
     <sheet name="D2C" sheetId="6" r:id="rId2"/>
-    <sheet name="SCCA Expected Losses" sheetId="9" r:id="rId3"/>
-    <sheet name="SCCA Contingent Liabilities" sheetId="10" r:id="rId4"/>
+    <sheet name="SCCA EL" sheetId="9" r:id="rId3"/>
+    <sheet name="SCCA CL" sheetId="10" r:id="rId4"/>
     <sheet name="Indicators" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>

--- a/Templates/TemplateDefault.xlsx
+++ b/Templates/TemplateDefault.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F649C98D-D1F2-44FE-9640-13E9D9BD15BB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FC9C8-CF06-4A06-9790-E12A8C6E4F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="761" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="761" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="D2D" sheetId="7" r:id="rId1"/>

--- a/Templates/TemplateDefault.xlsx
+++ b/Templates/TemplateDefault.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A9FC9C8-CF06-4A06-9790-E12A8C6E4F5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705CE134-D87C-45D6-B636-D97DB6C837FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="690" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="761" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
+    <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="761" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
   <sheets>
     <sheet name="D2D" sheetId="7" r:id="rId1"/>

--- a/Templates/TemplateDefault.xlsx
+++ b/Templates/TemplateDefault.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox\Development\Matlab\SystemicRisk\Templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{705CE134-D87C-45D6-B636-D97DB6C837FC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE49D28-F559-4FF8-A4CE-A74E1EDB54E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1035" yWindow="4215" windowWidth="21600" windowHeight="11385" tabRatio="761" xr2:uid="{CA77ADC8-76C7-4D93-A00A-6C55AFF757B0}"/>
   </bookViews>
